--- a/data/trans_orig/PERI_TABACO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PERI_TABACO-Edad-trans_orig.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,89</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,83; 5,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,46; 5,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,33; 5,13</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,19</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>8,26</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,76</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,24; 10,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,62; 10,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,11; 9,5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>14,36</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>15,56</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>14,97</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,3; 16,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,63; 17,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,58; 16,32</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>30,69</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,87</t>
+          <t>20,54</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>29,26</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,88</t>
+          <t>21,7; 32,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,87; 5,14</t>
+          <t>18,49; 22,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,5</t>
+          <t>21,26; 32,19</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,34</t>
+          <t>27,16</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,39</t>
+          <t>27,62</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,37</t>
+          <t>27,33</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,58; 11,07</t>
+          <t>25,0; 29,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,15; 9,82</t>
+          <t>25,23; 30,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,1; 9,82</t>
+          <t>25,78; 28,82</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>14,94</t>
+          <t>32,75</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>15,83</t>
+          <t>30,01</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>15,42</t>
+          <t>31,97</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,06; 16,56</t>
+          <t>30,43; 34,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,35; 17,26</t>
+          <t>23,56; 33,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,23; 16,45</t>
+          <t>29,7; 33,83</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>25,96</t>
+          <t>38,19</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>20,13</t>
+          <t>34,94</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>23,81</t>
+          <t>37,64</t>
         </is>
       </c>
     </row>
@@ -879,24 +879,24 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>22,01; 30,53</t>
+          <t>35,67; 40,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,5; 21,91</t>
+          <t>29,44; 40,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>21,06; 28,59</t>
+          <t>35,04; 39,82</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>27,95</t>
+          <t>29,64</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>27,97</t>
+          <t>22,2</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>27,96</t>
+          <t>27,73</t>
         </is>
       </c>
     </row>
@@ -929,185 +929,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>26,31; 29,49</t>
+          <t>26,97; 31,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>26,03; 29,87</t>
+          <t>20,4; 23,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>26,73; 29,16</t>
+          <t>25,08; 30,54</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>34,47</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>30,24</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>33,52</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>32,71; 36,05</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>26,27; 33,66</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>31,88; 35,17</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>39,02</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>35,59</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>38,6</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>36,98; 40,87</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>30,53; 40,61</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>36,71; 40,57</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>29,35</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>21,74</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>26,76</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>28,16; 30,46</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>20,42; 22,93</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>25,79; 27,83</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_orig/PERI_TABACO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PERI_TABACO-Edad-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Número total de años que ha consumido tabaco años</t>
+          <t>Número total de años que ha consumido tabaco años (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PERI_TABACO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PERI_TABACO-Edad-trans_orig.xlsx
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,47</t>
+          <t>1,59; 5,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,13</t>
+          <t>2,38; 5,06</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,24; 10,43</t>
+          <t>4,11; 10,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,62; 10,28</t>
+          <t>6,72; 10,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,11; 9,5</t>
+          <t>5,93; 9,55</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,3; 16,33</t>
+          <t>12,07; 16,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,63; 17,27</t>
+          <t>13,73; 17,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,58; 16,32</t>
+          <t>13,64; 16,24</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,7; 32,55</t>
+          <t>21,75; 32,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,49; 22,69</t>
+          <t>18,45; 22,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,26; 32,19</t>
+          <t>21,13; 32,15</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25,0; 29,41</t>
+          <t>24,82; 29,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>25,23; 30,0</t>
+          <t>25,18; 29,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>25,78; 28,82</t>
+          <t>25,66; 28,98</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>30,43; 34,98</t>
+          <t>30,49; 35,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>23,56; 33,63</t>
+          <t>23,3; 33,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29,7; 33,83</t>
+          <t>29,61; 34,11</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>35,67; 40,67</t>
+          <t>35,48; 40,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>29,44; 40,62</t>
+          <t>28,71; 41,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>35,04; 39,82</t>
+          <t>35,36; 39,97</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>26,97; 31,92</t>
+          <t>26,84; 31,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>20,4; 23,64</t>
+          <t>20,47; 23,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>25,08; 30,54</t>
+          <t>25,1; 30,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/PERI_TABACO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PERI_TABACO-Edad-trans_orig.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,08</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>3,72</t>
         </is>
       </c>
     </row>
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 5,56</t>
+          <t>1,71; 5,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,38; 5,06</t>
+          <t>2,33; 4,81</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,19</t>
+          <t>7,71</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,26</t>
+          <t>7,61</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,76</t>
+          <t>7,66</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,11; 10,73</t>
+          <t>4,97; 10,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,72; 10,22</t>
+          <t>5,83; 9,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,93; 9,55</t>
+          <t>5,83; 9,4</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,36</t>
+          <t>14,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,56</t>
+          <t>15,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,97</t>
+          <t>15,11</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,07; 16,21</t>
+          <t>12,47; 16,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,73; 17,46</t>
+          <t>14,02; 17,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,64; 16,24</t>
+          <t>13,83; 16,3</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>30,69</t>
+          <t>21,94</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,54</t>
+          <t>20,44</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29,26</t>
+          <t>21,31</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,75; 32,58</t>
+          <t>19,79; 23,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,45; 22,61</t>
+          <t>18,34; 22,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,13; 32,15</t>
+          <t>19,84; 22,84</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>27,16</t>
+          <t>27,41</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>27,62</t>
+          <t>27,31</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>27,33</t>
+          <t>27,37</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,82; 29,29</t>
+          <t>25,17; 29,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>25,18; 29,86</t>
+          <t>24,91; 29,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>25,66; 28,98</t>
+          <t>25,72; 28,95</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>32,75</t>
+          <t>32,91</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>30,01</t>
+          <t>31,3</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>31,97</t>
+          <t>32,47</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>30,49; 35,06</t>
+          <t>30,78; 35,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>23,3; 33,71</t>
+          <t>28,01; 34,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29,61; 34,11</t>
+          <t>30,7; 34,37</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>38,19</t>
+          <t>38,16</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>34,94</t>
+          <t>35,17</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>37,64</t>
+          <t>37,65</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>35,48; 40,47</t>
+          <t>35,4; 40,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>28,71; 41,08</t>
+          <t>29,09; 41,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>35,36; 39,97</t>
+          <t>35,36; 40,02</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>29,64</t>
+          <t>27,23</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>22,2</t>
+          <t>22,14</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>27,73</t>
+          <t>25,37</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>26,84; 31,87</t>
+          <t>25,76; 28,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>20,47; 23,66</t>
+          <t>20,51; 23,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>25,1; 30,67</t>
+          <t>24,35; 26,43</t>
         </is>
       </c>
     </row>
